--- a/MVP/SHOPPING_LISTS/HNP-MIKROSYSTEME.xlsx
+++ b/MVP/SHOPPING_LISTS/HNP-MIKROSYSTEME.xlsx
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
